--- a/325 Excel.xlsx
+++ b/325 Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\325 semester project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC985BF-50E1-4738-A683-B760117E2149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF58E6C-DAFB-46B0-86D9-E4605ACEDF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0DB96B91-F58E-4089-A556-571079AA5DB4}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,6 +538,7 @@
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">

--- a/325 Excel.xlsx
+++ b/325 Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garre\Desktop\325 semester project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF58E6C-DAFB-46B0-86D9-E4605ACEDF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26DF905-50C4-4148-99A2-5D9B755218BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0DB96B91-F58E-4089-A556-571079AA5DB4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>School</t>
   </si>
@@ -50,6 +50,9 @@
     <t>DistrictID</t>
   </si>
   <si>
+    <t>District</t>
+  </si>
+  <si>
     <t>Northwest</t>
   </si>
   <si>
@@ -138,6 +141,12 @@
   </si>
   <si>
     <t>Credits</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Number of schools</t>
   </si>
 </sst>
 </file>
@@ -518,17 +527,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BA5461-B19D-4F8E-A14D-018F08EA33EB}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
@@ -555,36 +564,36 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>12</v>
@@ -614,73 +623,87 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
